--- a/artfynd/A 62816-2025 artfynd.xlsx
+++ b/artfynd/A 62816-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131167871</v>
+        <v>131167960</v>
       </c>
       <c r="B2" t="n">
-        <v>78255</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228579</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>467653</v>
+        <v>467659</v>
       </c>
       <c r="R2" t="n">
-        <v>6797353</v>
+        <v>6797458</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:11</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:11</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -894,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131167960</v>
+        <v>131167899</v>
       </c>
       <c r="B4" t="n">
         <v>79243</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>467659</v>
+        <v>467639</v>
       </c>
       <c r="R4" t="n">
-        <v>6797458</v>
+        <v>6797349</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>17:11</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>17:11</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131167899</v>
+        <v>131167871</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>78255</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,21 +1012,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>228579</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>467639</v>
+        <v>467653</v>
       </c>
       <c r="R5" t="n">
-        <v>6797349</v>
+        <v>6797353</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1220,10 +1220,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131167962</v>
+        <v>131167979</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1231,34 +1231,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>467677</v>
+        <v>467642</v>
       </c>
       <c r="R7" t="n">
-        <v>6797409</v>
+        <v>6797363</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1290,7 +1295,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>17:13</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1300,7 +1305,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>17:13</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1327,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131167979</v>
+        <v>131167962</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1338,39 +1343,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>467642</v>
+        <v>467677</v>
       </c>
       <c r="R8" t="n">
-        <v>6797363</v>
+        <v>6797409</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>17:13</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>17:13</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1653,7 +1653,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131167920</v>
+        <v>131167933</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>467605</v>
+        <v>467545</v>
       </c>
       <c r="R11" t="n">
-        <v>6797771</v>
+        <v>6797915</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1760,7 +1760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131167933</v>
+        <v>131167922</v>
       </c>
       <c r="B12" t="n">
         <v>79243</v>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>467545</v>
+        <v>467590</v>
       </c>
       <c r="R12" t="n">
-        <v>6797915</v>
+        <v>6797817</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:26</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:26</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1867,7 +1867,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131167922</v>
+        <v>131167971</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>467590</v>
+        <v>467689</v>
       </c>
       <c r="R13" t="n">
-        <v>6797817</v>
+        <v>6797293</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:26</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:26</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1974,7 +1974,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131167971</v>
+        <v>131167920</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>467689</v>
+        <v>467605</v>
       </c>
       <c r="R14" t="n">
-        <v>6797293</v>
+        <v>6797771</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2081,7 +2081,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131167984</v>
+        <v>131167976</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2112,7 +2112,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>gammalt bo</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>467672</v>
+        <v>467639</v>
       </c>
       <c r="R15" t="n">
-        <v>6797328</v>
+        <v>6797349</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2193,10 +2193,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131167937</v>
+        <v>131167984</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2204,34 +2204,39 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>467549</v>
+        <v>467672</v>
       </c>
       <c r="R16" t="n">
-        <v>6797866</v>
+        <v>6797328</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2263,7 +2268,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2273,7 +2278,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2300,10 +2305,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131167976</v>
+        <v>131167875</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2311,39 +2316,30 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>467639</v>
+        <v>467596</v>
       </c>
       <c r="R17" t="n">
-        <v>6797349</v>
+        <v>6797790</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2375,7 +2371,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2385,7 +2381,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2412,7 +2408,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131167890</v>
+        <v>131167915</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2447,10 +2443,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>467641</v>
+        <v>467623</v>
       </c>
       <c r="R18" t="n">
-        <v>6797236</v>
+        <v>6797612</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2478,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2492,7 +2488,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2519,7 +2515,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131167917</v>
+        <v>131167923</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2554,10 +2550,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>467617</v>
+        <v>467579</v>
       </c>
       <c r="R19" t="n">
-        <v>6797685</v>
+        <v>6797836</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2589,7 +2585,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2599,7 +2595,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2626,7 +2622,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131167915</v>
+        <v>131167937</v>
       </c>
       <c r="B20" t="n">
         <v>79243</v>
@@ -2661,10 +2657,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>467623</v>
+        <v>467549</v>
       </c>
       <c r="R20" t="n">
-        <v>6797612</v>
+        <v>6797866</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2696,7 +2692,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2706,7 +2702,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2733,7 +2729,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131167923</v>
+        <v>131167917</v>
       </c>
       <c r="B21" t="n">
         <v>79243</v>
@@ -2768,10 +2764,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>467579</v>
+        <v>467617</v>
       </c>
       <c r="R21" t="n">
-        <v>6797836</v>
+        <v>6797685</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2803,7 +2799,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2813,7 +2809,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2947,10 +2943,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131167875</v>
+        <v>131167890</v>
       </c>
       <c r="B23" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2958,19 +2954,23 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -2978,10 +2978,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>467596</v>
+        <v>467641</v>
       </c>
       <c r="R23" t="n">
-        <v>6797790</v>
+        <v>6797236</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3050,7 +3050,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131167898</v>
+        <v>131167953</v>
       </c>
       <c r="B24" t="n">
         <v>79243</v>
@@ -3085,10 +3085,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>467623</v>
+        <v>467593</v>
       </c>
       <c r="R24" t="n">
-        <v>6797349</v>
+        <v>6797597</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:04</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:04</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3157,7 +3157,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131167955</v>
+        <v>131167898</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3192,10 +3192,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>467647</v>
+        <v>467623</v>
       </c>
       <c r="R25" t="n">
-        <v>6797568</v>
+        <v>6797349</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3264,32 +3264,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131167953</v>
+        <v>131167870</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>80384</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3299,10 +3299,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>467593</v>
+        <v>467659</v>
       </c>
       <c r="R26" t="n">
-        <v>6797597</v>
+        <v>6797460</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3355,6 +3355,21 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3371,7 +3386,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131167940</v>
+        <v>131167955</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3406,10 +3421,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>467552</v>
+        <v>467647</v>
       </c>
       <c r="R27" t="n">
-        <v>6797804</v>
+        <v>6797568</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3441,7 +3456,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3451,7 +3466,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3585,32 +3600,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131167870</v>
+        <v>131167940</v>
       </c>
       <c r="B29" t="n">
-        <v>80384</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3620,10 +3635,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>467659</v>
+        <v>467552</v>
       </c>
       <c r="R29" t="n">
-        <v>6797460</v>
+        <v>6797804</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3655,7 +3670,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3665,7 +3680,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3676,21 +3691,6 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3921,10 +3921,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131167981</v>
+        <v>131167958</v>
       </c>
       <c r="B32" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3932,39 +3932,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>467577</v>
+        <v>467667</v>
       </c>
       <c r="R32" t="n">
-        <v>6797814</v>
+        <v>6797503</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3996,7 +3991,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4006,7 +4001,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4033,7 +4028,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131167958</v>
+        <v>131167934</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4068,10 +4063,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>467667</v>
+        <v>467517</v>
       </c>
       <c r="R33" t="n">
-        <v>6797503</v>
+        <v>6797908</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4103,7 +4098,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4113,7 +4108,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4140,7 +4135,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131167934</v>
+        <v>131167967</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4175,10 +4170,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>467517</v>
+        <v>467672</v>
       </c>
       <c r="R34" t="n">
-        <v>6797908</v>
+        <v>6797328</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4210,7 +4205,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4220,7 +4215,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4247,7 +4242,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131167967</v>
+        <v>131167966</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4282,10 +4277,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>467672</v>
+        <v>467699</v>
       </c>
       <c r="R35" t="n">
-        <v>6797328</v>
+        <v>6797334</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4317,7 +4312,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4327,7 +4322,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4354,10 +4349,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131167966</v>
+        <v>131167981</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4365,34 +4360,39 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>467699</v>
+        <v>467577</v>
       </c>
       <c r="R36" t="n">
-        <v>6797334</v>
+        <v>6797814</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4461,10 +4461,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131167913</v>
+        <v>131167978</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4472,34 +4472,39 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>467611</v>
+        <v>467649</v>
       </c>
       <c r="R37" t="n">
-        <v>6797569</v>
+        <v>6797351</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4531,7 +4536,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4541,7 +4546,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4568,7 +4573,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131167961</v>
+        <v>131167913</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4603,10 +4608,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>467662</v>
+        <v>467611</v>
       </c>
       <c r="R38" t="n">
-        <v>6797441</v>
+        <v>6797569</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4638,7 +4643,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>17:11</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4648,7 +4653,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>17:11</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4675,10 +4680,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131167978</v>
+        <v>131167919</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4686,39 +4691,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>467649</v>
+        <v>467592</v>
       </c>
       <c r="R39" t="n">
-        <v>6797351</v>
+        <v>6797765</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4787,7 +4787,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131167919</v>
+        <v>131167961</v>
       </c>
       <c r="B40" t="n">
         <v>79243</v>
@@ -4822,10 +4822,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>467592</v>
+        <v>467662</v>
       </c>
       <c r="R40" t="n">
-        <v>6797765</v>
+        <v>6797441</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>17:11</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>17:11</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4894,7 +4894,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131167929</v>
+        <v>131167931</v>
       </c>
       <c r="B41" t="n">
         <v>79243</v>
@@ -4929,10 +4929,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>467511</v>
+        <v>467558</v>
       </c>
       <c r="R41" t="n">
-        <v>6798010</v>
+        <v>6797922</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>16:42</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>16:42</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5001,7 +5001,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131167931</v>
+        <v>131167952</v>
       </c>
       <c r="B42" t="n">
         <v>79243</v>
@@ -5036,10 +5036,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>467558</v>
+        <v>467574</v>
       </c>
       <c r="R42" t="n">
-        <v>6797922</v>
+        <v>6797625</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5108,7 +5108,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131167952</v>
+        <v>131167929</v>
       </c>
       <c r="B43" t="n">
         <v>79243</v>
@@ -5143,10 +5143,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>467574</v>
+        <v>467511</v>
       </c>
       <c r="R43" t="n">
-        <v>6797625</v>
+        <v>6798010</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:42</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:42</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5429,10 +5429,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131167893</v>
+        <v>131167867</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5440,34 +5440,39 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>467639</v>
+        <v>467703</v>
       </c>
       <c r="R46" t="n">
-        <v>6797293</v>
+        <v>6797331</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5499,7 +5504,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5509,7 +5514,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5536,45 +5546,50 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131167954</v>
+        <v>131167860</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>4773</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>100299</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>467633</v>
+        <v>467601</v>
       </c>
       <c r="R47" t="n">
-        <v>6797570</v>
+        <v>6797468</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5606,7 +5621,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5616,7 +5631,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5643,7 +5658,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131167942</v>
+        <v>131167891</v>
       </c>
       <c r="B48" t="n">
         <v>79243</v>
@@ -5678,10 +5693,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>467567</v>
+        <v>467651</v>
       </c>
       <c r="R48" t="n">
-        <v>6797786</v>
+        <v>6797250</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5713,7 +5728,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5723,7 +5738,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5750,7 +5765,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131167891</v>
+        <v>131167954</v>
       </c>
       <c r="B49" t="n">
         <v>79243</v>
@@ -5785,10 +5800,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>467651</v>
+        <v>467633</v>
       </c>
       <c r="R49" t="n">
-        <v>6797250</v>
+        <v>6797570</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5820,7 +5835,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5830,7 +5845,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5857,10 +5872,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131167867</v>
+        <v>131167942</v>
       </c>
       <c r="B50" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5868,39 +5883,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>467703</v>
+        <v>467567</v>
       </c>
       <c r="R50" t="n">
-        <v>6797331</v>
+        <v>6797786</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5932,7 +5942,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5942,12 +5952,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>17:17</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5974,10 +5979,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131167876</v>
+        <v>131167893</v>
       </c>
       <c r="B51" t="n">
-        <v>92227</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5985,21 +5990,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6040186</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kötticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6009,10 +6014,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>467710</v>
+        <v>467639</v>
       </c>
       <c r="R51" t="n">
-        <v>6797303</v>
+        <v>6797293</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6044,7 +6049,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>17:26</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6054,7 +6059,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>17:26</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6063,7 +6068,6 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6082,50 +6086,45 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131167860</v>
+        <v>131167876</v>
       </c>
       <c r="B52" t="n">
-        <v>4773</v>
+        <v>92227</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100299</v>
+        <v>6040186</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Kötticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>467601</v>
+        <v>467710</v>
       </c>
       <c r="R52" t="n">
-        <v>6797468</v>
+        <v>6797303</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6157,7 +6156,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>17:26</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6167,7 +6166,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>17:26</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6176,6 +6175,7 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131167918</v>
+        <v>131167938</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>467591</v>
+        <v>467578</v>
       </c>
       <c r="R53" t="n">
-        <v>6797763</v>
+        <v>6797832</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6301,7 +6301,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131167938</v>
+        <v>131167932</v>
       </c>
       <c r="B54" t="n">
         <v>79243</v>
@@ -6336,10 +6336,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>467578</v>
+        <v>467553</v>
       </c>
       <c r="R54" t="n">
-        <v>6797832</v>
+        <v>6797919</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6408,7 +6408,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131167932</v>
+        <v>131167963</v>
       </c>
       <c r="B55" t="n">
         <v>79243</v>
@@ -6443,10 +6443,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>467553</v>
+        <v>467679</v>
       </c>
       <c r="R55" t="n">
-        <v>6797919</v>
+        <v>6797386</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>17:14</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>17:14</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6515,7 +6515,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131167963</v>
+        <v>131167916</v>
       </c>
       <c r="B56" t="n">
         <v>79243</v>
@@ -6550,10 +6550,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>467679</v>
+        <v>467623</v>
       </c>
       <c r="R56" t="n">
-        <v>6797386</v>
+        <v>6797638</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>17:14</t>
+          <t>16:19</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>17:14</t>
+          <t>16:19</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6622,7 +6622,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131167916</v>
+        <v>131167918</v>
       </c>
       <c r="B57" t="n">
         <v>79243</v>
@@ -6657,10 +6657,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>467623</v>
+        <v>467591</v>
       </c>
       <c r="R57" t="n">
-        <v>6797638</v>
+        <v>6797763</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>16:19</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>16:19</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6729,10 +6729,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131167857</v>
+        <v>131167925</v>
       </c>
       <c r="B58" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6740,21 +6740,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6764,10 +6764,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>467564</v>
+        <v>467583</v>
       </c>
       <c r="R58" t="n">
-        <v>6797696</v>
+        <v>6797900</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6948,10 +6948,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131167912</v>
+        <v>131167857</v>
       </c>
       <c r="B60" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6959,21 +6959,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6983,10 +6983,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>467598</v>
+        <v>467564</v>
       </c>
       <c r="R60" t="n">
-        <v>6797550</v>
+        <v>6797696</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7055,10 +7055,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131167947</v>
+        <v>131167983</v>
       </c>
       <c r="B61" t="n">
-        <v>79243</v>
+        <v>78646</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7066,21 +7066,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7090,10 +7090,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>467565</v>
+        <v>467644</v>
       </c>
       <c r="R61" t="n">
-        <v>6797695</v>
+        <v>6797577</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7162,7 +7162,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131167925</v>
+        <v>131167947</v>
       </c>
       <c r="B62" t="n">
         <v>79243</v>
@@ -7197,10 +7197,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>467583</v>
+        <v>467565</v>
       </c>
       <c r="R62" t="n">
-        <v>6797900</v>
+        <v>6797695</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7269,10 +7269,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131167983</v>
+        <v>131167912</v>
       </c>
       <c r="B63" t="n">
-        <v>78646</v>
+        <v>79243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7280,21 +7280,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7304,10 +7304,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>467644</v>
+        <v>467598</v>
       </c>
       <c r="R63" t="n">
-        <v>6797577</v>
+        <v>6797550</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7697,10 +7697,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131167946</v>
+        <v>131167975</v>
       </c>
       <c r="B67" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7708,34 +7708,39 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>467569</v>
+        <v>467592</v>
       </c>
       <c r="R67" t="n">
-        <v>6797726</v>
+        <v>6797810</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7767,7 +7772,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -7777,14 +7782,14 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
       <c r="AE67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG67" t="b">
         <v>0</v>
@@ -7804,7 +7809,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131167927</v>
+        <v>131167968</v>
       </c>
       <c r="B68" t="n">
         <v>79243</v>
@@ -7839,10 +7844,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>467608</v>
+        <v>467656</v>
       </c>
       <c r="R68" t="n">
-        <v>6797937</v>
+        <v>6797345</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7874,7 +7879,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7884,7 +7889,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7911,10 +7916,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131167975</v>
+        <v>131167927</v>
       </c>
       <c r="B69" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7922,39 +7927,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>467592</v>
+        <v>467608</v>
       </c>
       <c r="R69" t="n">
-        <v>6797810</v>
+        <v>6797937</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -7996,14 +7996,14 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="AD69" t="b">
         <v>0</v>
       </c>
       <c r="AE69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG69" t="b">
         <v>0</v>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131167968</v>
+        <v>131167946</v>
       </c>
       <c r="B70" t="n">
         <v>79243</v>
@@ -8058,10 +8058,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>467656</v>
+        <v>467569</v>
       </c>
       <c r="R70" t="n">
-        <v>6797345</v>
+        <v>6797726</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8130,7 +8130,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131167914</v>
+        <v>131167950</v>
       </c>
       <c r="B71" t="n">
         <v>79243</v>
@@ -8165,10 +8165,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>467622</v>
+        <v>467569</v>
       </c>
       <c r="R71" t="n">
-        <v>6797592</v>
+        <v>6797667</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8237,7 +8237,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131167907</v>
+        <v>131167965</v>
       </c>
       <c r="B72" t="n">
         <v>79243</v>
@@ -8272,10 +8272,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>467592</v>
+        <v>467694</v>
       </c>
       <c r="R72" t="n">
-        <v>6797489</v>
+        <v>6797345</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8344,7 +8344,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131167951</v>
+        <v>131167914</v>
       </c>
       <c r="B73" t="n">
         <v>79243</v>
@@ -8379,10 +8379,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>467571</v>
+        <v>467622</v>
       </c>
       <c r="R73" t="n">
-        <v>6797635</v>
+        <v>6797592</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8451,7 +8451,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131167904</v>
+        <v>131167964</v>
       </c>
       <c r="B74" t="n">
         <v>79243</v>
@@ -8486,10 +8486,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>467602</v>
+        <v>467685</v>
       </c>
       <c r="R74" t="n">
-        <v>6797434</v>
+        <v>6797361</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>16:11</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>16:11</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8558,7 +8558,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131167944</v>
+        <v>131167970</v>
       </c>
       <c r="B75" t="n">
         <v>79243</v>
@@ -8593,10 +8593,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>467571</v>
+        <v>467665</v>
       </c>
       <c r="R75" t="n">
-        <v>6797758</v>
+        <v>6797301</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8772,7 +8772,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131167945</v>
+        <v>131167944</v>
       </c>
       <c r="B77" t="n">
         <v>79243</v>
@@ -8807,10 +8807,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>467551</v>
+        <v>467571</v>
       </c>
       <c r="R77" t="n">
-        <v>6797761</v>
+        <v>6797758</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131167950</v>
+        <v>131167907</v>
       </c>
       <c r="B78" t="n">
         <v>79243</v>
@@ -8914,10 +8914,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>467569</v>
+        <v>467592</v>
       </c>
       <c r="R78" t="n">
-        <v>6797667</v>
+        <v>6797489</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8986,7 +8986,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131167900</v>
+        <v>131167951</v>
       </c>
       <c r="B79" t="n">
         <v>79243</v>
@@ -9021,10 +9021,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>467647</v>
+        <v>467571</v>
       </c>
       <c r="R79" t="n">
-        <v>6797353</v>
+        <v>6797635</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9093,7 +9093,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131167965</v>
+        <v>131167900</v>
       </c>
       <c r="B80" t="n">
         <v>79243</v>
@@ -9128,10 +9128,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>467694</v>
+        <v>467647</v>
       </c>
       <c r="R80" t="n">
-        <v>6797345</v>
+        <v>6797353</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9200,7 +9200,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131167970</v>
+        <v>131167904</v>
       </c>
       <c r="B81" t="n">
         <v>79243</v>
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>467665</v>
+        <v>467602</v>
       </c>
       <c r="R81" t="n">
-        <v>6797301</v>
+        <v>6797434</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9307,7 +9307,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131167964</v>
+        <v>131167945</v>
       </c>
       <c r="B82" t="n">
         <v>79243</v>
@@ -9342,10 +9342,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>467685</v>
+        <v>467551</v>
       </c>
       <c r="R82" t="n">
-        <v>6797361</v>
+        <v>6797761</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9414,7 +9414,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131167906</v>
+        <v>131167892</v>
       </c>
       <c r="B83" t="n">
         <v>79243</v>
@@ -9449,10 +9449,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>467599</v>
+        <v>467652</v>
       </c>
       <c r="R83" t="n">
-        <v>6797480</v>
+        <v>6797268</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9521,7 +9521,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131167892</v>
+        <v>131167939</v>
       </c>
       <c r="B84" t="n">
         <v>79243</v>
@@ -9556,10 +9556,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>467652</v>
+        <v>467562</v>
       </c>
       <c r="R84" t="n">
-        <v>6797268</v>
+        <v>6797811</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9628,7 +9628,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131167939</v>
+        <v>131167906</v>
       </c>
       <c r="B85" t="n">
         <v>79243</v>
@@ -9663,10 +9663,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>467562</v>
+        <v>467599</v>
       </c>
       <c r="R85" t="n">
-        <v>6797811</v>
+        <v>6797480</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9735,32 +9735,32 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131167910</v>
+        <v>131167858</v>
       </c>
       <c r="B86" t="n">
-        <v>79243</v>
+        <v>91771</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -9770,10 +9770,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>467599</v>
+        <v>467647</v>
       </c>
       <c r="R86" t="n">
-        <v>6797517</v>
+        <v>6797362</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9842,7 +9842,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131167949</v>
+        <v>131167910</v>
       </c>
       <c r="B87" t="n">
         <v>79243</v>
@@ -9877,10 +9877,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>467565</v>
+        <v>467599</v>
       </c>
       <c r="R87" t="n">
-        <v>6797674</v>
+        <v>6797517</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9912,7 +9912,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -9922,7 +9922,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9949,7 +9949,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131167941</v>
+        <v>131167949</v>
       </c>
       <c r="B88" t="n">
         <v>79243</v>
@@ -9984,10 +9984,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>467556</v>
+        <v>467565</v>
       </c>
       <c r="R88" t="n">
-        <v>6797789</v>
+        <v>6797674</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10056,32 +10056,32 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131167858</v>
+        <v>131167941</v>
       </c>
       <c r="B89" t="n">
-        <v>91771</v>
+        <v>79243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10091,10 +10091,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>467647</v>
+        <v>467556</v>
       </c>
       <c r="R89" t="n">
-        <v>6797362</v>
+        <v>6797789</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10270,7 +10270,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131167948</v>
+        <v>131167930</v>
       </c>
       <c r="B91" t="n">
         <v>79243</v>
@@ -10308,7 +10308,7 @@
         <v>467562</v>
       </c>
       <c r="R91" t="n">
-        <v>6797682</v>
+        <v>6797958</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:44</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:44</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10377,7 +10377,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131167930</v>
+        <v>131167969</v>
       </c>
       <c r="B92" t="n">
         <v>79243</v>
@@ -10412,10 +10412,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>467562</v>
+        <v>467656</v>
       </c>
       <c r="R92" t="n">
-        <v>6797958</v>
+        <v>6797324</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10447,7 +10447,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>16:44</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>16:44</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10484,7 +10484,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131167969</v>
+        <v>131167948</v>
       </c>
       <c r="B93" t="n">
         <v>79243</v>
@@ -10519,10 +10519,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>467656</v>
+        <v>467562</v>
       </c>
       <c r="R93" t="n">
-        <v>6797324</v>
+        <v>6797682</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10554,7 +10554,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD93" t="b">

--- a/artfynd/A 62816-2025 artfynd.xlsx
+++ b/artfynd/A 62816-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131167960</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>131167872</v>
       </c>
       <c r="B3" t="n">
-        <v>79000</v>
+        <v>79001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>131167899</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>131167871</v>
       </c>
       <c r="B5" t="n">
-        <v>78255</v>
+        <v>78256</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131167862</v>
+        <v>131167962</v>
       </c>
       <c r="B6" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1119,39 +1119,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>467561</v>
+        <v>467677</v>
       </c>
       <c r="R6" t="n">
-        <v>6797758</v>
+        <v>6797409</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1183,7 +1178,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:13</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1193,7 +1188,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:13</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1220,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131167979</v>
+        <v>131167862</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1231,16 +1226,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1251,7 +1246,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1260,10 +1255,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>467642</v>
+        <v>467561</v>
       </c>
       <c r="R7" t="n">
-        <v>6797363</v>
+        <v>6797758</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1295,7 +1290,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1305,7 +1300,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1332,10 +1327,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131167962</v>
+        <v>131167979</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,34 +1338,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>467677</v>
+        <v>467642</v>
       </c>
       <c r="R8" t="n">
-        <v>6797409</v>
+        <v>6797363</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>17:13</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>17:13</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131167902</v>
+        <v>131167889</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>467628</v>
+        <v>467646</v>
       </c>
       <c r="R9" t="n">
-        <v>6797384</v>
+        <v>6797222</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:57</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:57</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1546,10 +1546,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131167889</v>
+        <v>131167902</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>467646</v>
+        <v>467628</v>
       </c>
       <c r="R10" t="n">
-        <v>6797222</v>
+        <v>6797384</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:57</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:57</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1656,7 +1656,7 @@
         <v>131167933</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>131167922</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>131167971</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>131167920</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131167976</v>
+        <v>131167875</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2092,39 +2092,30 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>467639</v>
+        <v>467596</v>
       </c>
       <c r="R15" t="n">
-        <v>6797349</v>
+        <v>6797790</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2156,7 +2147,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2166,7 +2157,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2193,10 +2184,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131167984</v>
+        <v>131167915</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2204,39 +2195,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>467672</v>
+        <v>467623</v>
       </c>
       <c r="R16" t="n">
-        <v>6797328</v>
+        <v>6797612</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2268,7 +2254,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2278,7 +2264,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2305,10 +2291,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131167875</v>
+        <v>131167923</v>
       </c>
       <c r="B17" t="n">
-        <v>91828</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2316,19 +2302,23 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2336,10 +2326,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>467596</v>
+        <v>467579</v>
       </c>
       <c r="R17" t="n">
-        <v>6797790</v>
+        <v>6797836</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2371,7 +2361,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2381,7 +2371,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2408,10 +2398,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131167915</v>
+        <v>131167937</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2443,10 +2433,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>467623</v>
+        <v>467549</v>
       </c>
       <c r="R18" t="n">
-        <v>6797612</v>
+        <v>6797866</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2478,7 +2468,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2488,7 +2478,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2515,10 +2505,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131167923</v>
+        <v>131167917</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2550,10 +2540,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>467579</v>
+        <v>467617</v>
       </c>
       <c r="R19" t="n">
-        <v>6797836</v>
+        <v>6797685</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2585,7 +2575,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2595,7 +2585,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2622,10 +2612,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131167937</v>
+        <v>131167856</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>83224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2633,21 +2623,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2657,10 +2647,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>467549</v>
+        <v>467561</v>
       </c>
       <c r="R20" t="n">
-        <v>6797866</v>
+        <v>6797709</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2692,7 +2682,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2702,7 +2692,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2729,10 +2719,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131167917</v>
+        <v>131167890</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2764,10 +2754,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>467617</v>
+        <v>467641</v>
       </c>
       <c r="R21" t="n">
-        <v>6797685</v>
+        <v>6797236</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2799,7 +2789,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2809,7 +2799,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2836,10 +2826,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131167856</v>
+        <v>131167976</v>
       </c>
       <c r="B22" t="n">
-        <v>83223</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2847,34 +2837,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>467561</v>
+        <v>467639</v>
       </c>
       <c r="R22" t="n">
-        <v>6797709</v>
+        <v>6797349</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2906,7 +2901,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2916,7 +2911,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2943,10 +2938,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131167890</v>
+        <v>131167984</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2954,34 +2949,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>467641</v>
+        <v>467672</v>
       </c>
       <c r="R23" t="n">
-        <v>6797236</v>
+        <v>6797328</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3050,32 +3050,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131167953</v>
+        <v>131167870</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>80385</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3085,10 +3085,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>467593</v>
+        <v>467659</v>
       </c>
       <c r="R24" t="n">
-        <v>6797597</v>
+        <v>6797460</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3141,6 +3141,21 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3157,10 +3172,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131167898</v>
+        <v>131167955</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3192,10 +3207,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>467623</v>
+        <v>467647</v>
       </c>
       <c r="R25" t="n">
-        <v>6797349</v>
+        <v>6797568</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3227,7 +3242,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>16:04</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3237,7 +3252,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>16:04</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3264,32 +3279,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131167870</v>
+        <v>131167874</v>
       </c>
       <c r="B26" t="n">
-        <v>80384</v>
+        <v>79244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3299,10 +3314,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>467659</v>
+        <v>467567</v>
       </c>
       <c r="R26" t="n">
-        <v>6797460</v>
+        <v>6797649</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3334,7 +3349,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3344,7 +3359,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3355,21 +3370,6 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3386,10 +3386,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131167955</v>
+        <v>131167940</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>467647</v>
+        <v>467552</v>
       </c>
       <c r="R27" t="n">
-        <v>6797568</v>
+        <v>6797804</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3493,10 +3493,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131167874</v>
+        <v>131167953</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3528,10 +3528,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>467567</v>
+        <v>467593</v>
       </c>
       <c r="R28" t="n">
-        <v>6797649</v>
+        <v>6797597</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3600,10 +3600,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131167940</v>
+        <v>131167898</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>467552</v>
+        <v>467623</v>
       </c>
       <c r="R29" t="n">
-        <v>6797804</v>
+        <v>6797349</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3710,7 +3710,7 @@
         <v>131167936</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>131167926</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131167958</v>
+        <v>131167981</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3932,34 +3932,39 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>467667</v>
+        <v>467577</v>
       </c>
       <c r="R32" t="n">
-        <v>6797503</v>
+        <v>6797814</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3991,7 +3996,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4001,7 +4006,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4028,10 +4033,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131167934</v>
+        <v>131167958</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4063,10 +4068,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>467517</v>
+        <v>467667</v>
       </c>
       <c r="R33" t="n">
-        <v>6797908</v>
+        <v>6797503</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4098,7 +4103,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4108,7 +4113,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4135,10 +4140,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131167967</v>
+        <v>131167934</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4170,10 +4175,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>467672</v>
+        <v>467517</v>
       </c>
       <c r="R34" t="n">
-        <v>6797328</v>
+        <v>6797908</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4205,7 +4210,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4215,7 +4220,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4242,10 +4247,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131167966</v>
+        <v>131167967</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4277,10 +4282,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>467699</v>
+        <v>467672</v>
       </c>
       <c r="R35" t="n">
-        <v>6797334</v>
+        <v>6797328</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4312,7 +4317,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4322,7 +4327,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4349,10 +4354,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131167981</v>
+        <v>131167966</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4360,39 +4365,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>467577</v>
+        <v>467699</v>
       </c>
       <c r="R36" t="n">
-        <v>6797814</v>
+        <v>6797334</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4461,10 +4461,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131167978</v>
+        <v>131167913</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4472,39 +4472,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>467649</v>
+        <v>467611</v>
       </c>
       <c r="R37" t="n">
-        <v>6797351</v>
+        <v>6797569</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4536,7 +4531,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4546,7 +4541,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4573,10 +4568,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131167913</v>
+        <v>131167919</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4608,10 +4603,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>467611</v>
+        <v>467592</v>
       </c>
       <c r="R38" t="n">
-        <v>6797569</v>
+        <v>6797765</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4643,7 +4638,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4653,7 +4648,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4680,10 +4675,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131167919</v>
+        <v>131167961</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4715,10 +4710,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>467592</v>
+        <v>467662</v>
       </c>
       <c r="R39" t="n">
-        <v>6797765</v>
+        <v>6797441</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4750,7 +4745,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>17:11</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4760,7 +4755,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>17:11</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4787,10 +4782,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131167961</v>
+        <v>131167978</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4798,34 +4793,39 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>467662</v>
+        <v>467649</v>
       </c>
       <c r="R40" t="n">
-        <v>6797441</v>
+        <v>6797351</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>17:11</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>17:11</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4894,10 +4894,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131167931</v>
+        <v>131167952</v>
       </c>
       <c r="B41" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4929,10 +4929,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>467558</v>
+        <v>467574</v>
       </c>
       <c r="R41" t="n">
-        <v>6797922</v>
+        <v>6797625</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5001,10 +5001,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131167952</v>
+        <v>131167931</v>
       </c>
       <c r="B42" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5036,10 +5036,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>467574</v>
+        <v>467558</v>
       </c>
       <c r="R42" t="n">
-        <v>6797625</v>
+        <v>6797922</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5111,7 +5111,7 @@
         <v>131167929</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>131167901</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>131167943</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5429,10 +5429,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131167867</v>
+        <v>131167891</v>
       </c>
       <c r="B46" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5440,39 +5440,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>467703</v>
+        <v>467651</v>
       </c>
       <c r="R46" t="n">
-        <v>6797331</v>
+        <v>6797250</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5504,7 +5499,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5514,12 +5509,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>17:17</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5546,50 +5536,45 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131167860</v>
+        <v>131167954</v>
       </c>
       <c r="B47" t="n">
-        <v>4773</v>
+        <v>79244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100299</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>467601</v>
+        <v>467633</v>
       </c>
       <c r="R47" t="n">
-        <v>6797468</v>
+        <v>6797570</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5621,7 +5606,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5631,7 +5616,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5658,10 +5643,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131167891</v>
+        <v>131167942</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5693,10 +5678,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>467651</v>
+        <v>467567</v>
       </c>
       <c r="R48" t="n">
-        <v>6797250</v>
+        <v>6797786</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5728,7 +5713,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5738,7 +5723,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5765,10 +5750,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131167954</v>
+        <v>131167867</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5776,34 +5761,39 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>467633</v>
+        <v>467703</v>
       </c>
       <c r="R49" t="n">
-        <v>6797570</v>
+        <v>6797331</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5835,7 +5825,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5845,7 +5835,12 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5872,45 +5867,50 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131167942</v>
+        <v>131167860</v>
       </c>
       <c r="B50" t="n">
-        <v>79243</v>
+        <v>4773</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>100299</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>467567</v>
+        <v>467601</v>
       </c>
       <c r="R50" t="n">
-        <v>6797786</v>
+        <v>6797468</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5982,7 +5982,7 @@
         <v>131167893</v>
       </c>
       <c r="B51" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>131167876</v>
       </c>
       <c r="B52" t="n">
-        <v>92227</v>
+        <v>92228</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>131167938</v>
       </c>
       <c r="B53" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>131167932</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>131167963</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>131167916</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>131167918</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6729,10 +6729,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131167925</v>
+        <v>131167982</v>
       </c>
       <c r="B58" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6740,34 +6740,39 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>467583</v>
+        <v>467658</v>
       </c>
       <c r="R58" t="n">
-        <v>6797900</v>
+        <v>6797466</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6799,7 +6804,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6809,7 +6814,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6836,10 +6841,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131167982</v>
+        <v>131167857</v>
       </c>
       <c r="B59" t="n">
-        <v>57884</v>
+        <v>83224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6847,39 +6852,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>467658</v>
+        <v>467564</v>
       </c>
       <c r="R59" t="n">
-        <v>6797466</v>
+        <v>6797696</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6948,10 +6948,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131167857</v>
+        <v>131167983</v>
       </c>
       <c r="B60" t="n">
-        <v>83223</v>
+        <v>78647</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6959,21 +6959,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6440</v>
+        <v>6437</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6983,10 +6983,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>467564</v>
+        <v>467644</v>
       </c>
       <c r="R60" t="n">
-        <v>6797696</v>
+        <v>6797577</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7055,10 +7055,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131167983</v>
+        <v>131167947</v>
       </c>
       <c r="B61" t="n">
-        <v>78646</v>
+        <v>79244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7066,21 +7066,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7090,10 +7090,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>467644</v>
+        <v>467565</v>
       </c>
       <c r="R61" t="n">
-        <v>6797577</v>
+        <v>6797695</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7162,10 +7162,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131167947</v>
+        <v>131167912</v>
       </c>
       <c r="B62" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7197,10 +7197,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>467565</v>
+        <v>467598</v>
       </c>
       <c r="R62" t="n">
-        <v>6797695</v>
+        <v>6797550</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7269,10 +7269,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131167912</v>
+        <v>131167921</v>
       </c>
       <c r="B63" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7304,10 +7304,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>467598</v>
+        <v>467590</v>
       </c>
       <c r="R63" t="n">
-        <v>6797550</v>
+        <v>6797795</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7376,10 +7376,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131167921</v>
+        <v>131167925</v>
       </c>
       <c r="B64" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7411,10 +7411,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>467590</v>
+        <v>467583</v>
       </c>
       <c r="R64" t="n">
-        <v>6797795</v>
+        <v>6797900</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7486,7 +7486,7 @@
         <v>131167959</v>
       </c>
       <c r="B65" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>131167911</v>
       </c>
       <c r="B66" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7697,10 +7697,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131167975</v>
+        <v>131167968</v>
       </c>
       <c r="B67" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7708,39 +7708,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>467592</v>
+        <v>467656</v>
       </c>
       <c r="R67" t="n">
-        <v>6797810</v>
+        <v>6797345</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7772,7 +7767,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -7782,14 +7777,14 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
       <c r="AE67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG67" t="b">
         <v>0</v>
@@ -7809,10 +7804,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131167968</v>
+        <v>131167927</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7844,10 +7839,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>467656</v>
+        <v>467608</v>
       </c>
       <c r="R68" t="n">
-        <v>6797345</v>
+        <v>6797937</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7879,7 +7874,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7889,7 +7884,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7916,10 +7911,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131167927</v>
+        <v>131167946</v>
       </c>
       <c r="B69" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7951,10 +7946,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>467608</v>
+        <v>467569</v>
       </c>
       <c r="R69" t="n">
-        <v>6797937</v>
+        <v>6797726</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7986,7 +7981,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -7996,7 +7991,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8023,10 +8018,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131167946</v>
+        <v>131167975</v>
       </c>
       <c r="B70" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8034,34 +8029,39 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>467569</v>
+        <v>467592</v>
       </c>
       <c r="R70" t="n">
-        <v>6797726</v>
+        <v>6797810</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8103,14 +8103,14 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
       <c r="AE70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG70" t="b">
         <v>0</v>
@@ -8130,10 +8130,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131167950</v>
+        <v>131167951</v>
       </c>
       <c r="B71" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8165,10 +8165,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>467569</v>
+        <v>467571</v>
       </c>
       <c r="R71" t="n">
-        <v>6797667</v>
+        <v>6797635</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8237,10 +8237,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131167965</v>
+        <v>131167900</v>
       </c>
       <c r="B72" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8272,10 +8272,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>467694</v>
+        <v>467647</v>
       </c>
       <c r="R72" t="n">
-        <v>6797345</v>
+        <v>6797353</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8344,10 +8344,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131167914</v>
+        <v>131167950</v>
       </c>
       <c r="B73" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8379,10 +8379,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>467622</v>
+        <v>467569</v>
       </c>
       <c r="R73" t="n">
-        <v>6797592</v>
+        <v>6797667</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8451,10 +8451,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131167964</v>
+        <v>131167904</v>
       </c>
       <c r="B74" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8486,10 +8486,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>467685</v>
+        <v>467602</v>
       </c>
       <c r="R74" t="n">
-        <v>6797361</v>
+        <v>6797434</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8558,10 +8558,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131167970</v>
+        <v>131167965</v>
       </c>
       <c r="B75" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8593,10 +8593,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>467665</v>
+        <v>467694</v>
       </c>
       <c r="R75" t="n">
-        <v>6797301</v>
+        <v>6797345</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8665,10 +8665,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131167924</v>
+        <v>131167914</v>
       </c>
       <c r="B76" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8700,10 +8700,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>467578</v>
+        <v>467622</v>
       </c>
       <c r="R76" t="n">
-        <v>6797876</v>
+        <v>6797592</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8772,10 +8772,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131167944</v>
+        <v>131167964</v>
       </c>
       <c r="B77" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8807,10 +8807,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>467571</v>
+        <v>467685</v>
       </c>
       <c r="R77" t="n">
-        <v>6797758</v>
+        <v>6797361</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8842,7 +8842,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8879,10 +8879,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131167907</v>
+        <v>131167970</v>
       </c>
       <c r="B78" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8914,10 +8914,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>467592</v>
+        <v>467665</v>
       </c>
       <c r="R78" t="n">
-        <v>6797489</v>
+        <v>6797301</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8986,10 +8986,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131167951</v>
+        <v>131167924</v>
       </c>
       <c r="B79" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9021,10 +9021,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>467571</v>
+        <v>467578</v>
       </c>
       <c r="R79" t="n">
-        <v>6797635</v>
+        <v>6797876</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9093,10 +9093,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131167900</v>
+        <v>131167944</v>
       </c>
       <c r="B80" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9128,10 +9128,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>467647</v>
+        <v>467571</v>
       </c>
       <c r="R80" t="n">
-        <v>6797353</v>
+        <v>6797758</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9200,10 +9200,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131167904</v>
+        <v>131167907</v>
       </c>
       <c r="B81" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>467602</v>
+        <v>467592</v>
       </c>
       <c r="R81" t="n">
-        <v>6797434</v>
+        <v>6797489</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>16:11</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>16:11</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9310,7 +9310,7 @@
         <v>131167945</v>
       </c>
       <c r="B82" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>131167892</v>
       </c>
       <c r="B83" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>131167939</v>
       </c>
       <c r="B84" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>131167906</v>
       </c>
       <c r="B85" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>131167858</v>
       </c>
       <c r="B86" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>131167910</v>
       </c>
       <c r="B87" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>131167949</v>
       </c>
       <c r="B88" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>131167941</v>
       </c>
       <c r="B89" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>131167935</v>
       </c>
       <c r="B90" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>131167930</v>
       </c>
       <c r="B91" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>131167969</v>
       </c>
       <c r="B92" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>131167948</v>
       </c>
       <c r="B93" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>

--- a/artfynd/A 62816-2025 artfynd.xlsx
+++ b/artfynd/A 62816-2025 artfynd.xlsx
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131167862</v>
+        <v>131167979</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,16 +1226,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1246,7 +1246,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>467561</v>
+        <v>467642</v>
       </c>
       <c r="R7" t="n">
-        <v>6797758</v>
+        <v>6797363</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1327,10 +1327,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131167979</v>
+        <v>131167862</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1338,16 +1338,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1358,7 +1358,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>467642</v>
+        <v>467561</v>
       </c>
       <c r="R8" t="n">
-        <v>6797363</v>
+        <v>6797758</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,7 +1439,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131167889</v>
+        <v>131167902</v>
       </c>
       <c r="B9" t="n">
         <v>79244</v>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>467646</v>
+        <v>467628</v>
       </c>
       <c r="R9" t="n">
-        <v>6797222</v>
+        <v>6797384</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:57</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:57</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1546,7 +1546,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131167902</v>
+        <v>131167889</v>
       </c>
       <c r="B10" t="n">
         <v>79244</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>467628</v>
+        <v>467646</v>
       </c>
       <c r="R10" t="n">
-        <v>6797384</v>
+        <v>6797222</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:57</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:57</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -2081,10 +2081,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131167875</v>
+        <v>131167915</v>
       </c>
       <c r="B15" t="n">
-        <v>91829</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2092,19 +2092,23 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2112,10 +2116,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>467596</v>
+        <v>467623</v>
       </c>
       <c r="R15" t="n">
-        <v>6797790</v>
+        <v>6797612</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2147,7 +2151,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2157,7 +2161,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2184,7 +2188,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131167915</v>
+        <v>131167923</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2219,10 +2223,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>467623</v>
+        <v>467579</v>
       </c>
       <c r="R16" t="n">
-        <v>6797612</v>
+        <v>6797836</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2254,7 +2258,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2264,7 +2268,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2291,7 +2295,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131167923</v>
+        <v>131167937</v>
       </c>
       <c r="B17" t="n">
         <v>79244</v>
@@ -2326,10 +2330,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>467579</v>
+        <v>467549</v>
       </c>
       <c r="R17" t="n">
-        <v>6797836</v>
+        <v>6797866</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2361,7 +2365,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2371,7 +2375,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2398,7 +2402,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131167937</v>
+        <v>131167917</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2433,10 +2437,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>467549</v>
+        <v>467617</v>
       </c>
       <c r="R18" t="n">
-        <v>6797866</v>
+        <v>6797685</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2468,7 +2472,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2478,7 +2482,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2505,10 +2509,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131167917</v>
+        <v>131167856</v>
       </c>
       <c r="B19" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2516,21 +2520,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2540,10 +2544,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>467617</v>
+        <v>467561</v>
       </c>
       <c r="R19" t="n">
-        <v>6797685</v>
+        <v>6797709</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2575,7 +2579,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2585,7 +2589,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2612,10 +2616,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131167856</v>
+        <v>131167890</v>
       </c>
       <c r="B20" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2623,21 +2627,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2647,10 +2651,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>467561</v>
+        <v>467641</v>
       </c>
       <c r="R20" t="n">
-        <v>6797709</v>
+        <v>6797236</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2682,7 +2686,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2692,7 +2696,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2719,10 +2723,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131167890</v>
+        <v>131167976</v>
       </c>
       <c r="B21" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2730,34 +2734,39 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>467641</v>
+        <v>467639</v>
       </c>
       <c r="R21" t="n">
-        <v>6797236</v>
+        <v>6797349</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2789,7 +2798,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2799,7 +2808,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2826,7 +2835,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131167976</v>
+        <v>131167984</v>
       </c>
       <c r="B22" t="n">
         <v>57884</v>
@@ -2857,7 +2866,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2866,10 +2875,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>467639</v>
+        <v>467672</v>
       </c>
       <c r="R22" t="n">
-        <v>6797349</v>
+        <v>6797328</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2901,7 +2910,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2911,7 +2920,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2938,10 +2947,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131167984</v>
+        <v>131167875</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2949,39 +2958,30 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>467672</v>
+        <v>467596</v>
       </c>
       <c r="R23" t="n">
-        <v>6797328</v>
+        <v>6797790</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3921,10 +3921,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131167981</v>
+        <v>131167958</v>
       </c>
       <c r="B32" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3932,39 +3932,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>467577</v>
+        <v>467667</v>
       </c>
       <c r="R32" t="n">
-        <v>6797814</v>
+        <v>6797503</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3996,7 +3991,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4006,7 +4001,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4033,7 +4028,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131167958</v>
+        <v>131167934</v>
       </c>
       <c r="B33" t="n">
         <v>79244</v>
@@ -4068,10 +4063,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>467667</v>
+        <v>467517</v>
       </c>
       <c r="R33" t="n">
-        <v>6797503</v>
+        <v>6797908</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4103,7 +4098,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4113,7 +4108,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>16:49</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4140,7 +4135,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131167934</v>
+        <v>131167967</v>
       </c>
       <c r="B34" t="n">
         <v>79244</v>
@@ -4175,10 +4170,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>467517</v>
+        <v>467672</v>
       </c>
       <c r="R34" t="n">
-        <v>6797908</v>
+        <v>6797328</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4210,7 +4205,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4220,7 +4215,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>16:49</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4247,7 +4242,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131167967</v>
+        <v>131167966</v>
       </c>
       <c r="B35" t="n">
         <v>79244</v>
@@ -4282,10 +4277,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>467672</v>
+        <v>467699</v>
       </c>
       <c r="R35" t="n">
-        <v>6797328</v>
+        <v>6797334</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4317,7 +4312,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4327,7 +4322,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4354,10 +4349,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131167966</v>
+        <v>131167981</v>
       </c>
       <c r="B36" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4365,34 +4360,39 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>467699</v>
+        <v>467577</v>
       </c>
       <c r="R36" t="n">
-        <v>6797334</v>
+        <v>6797814</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5429,7 +5429,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131167891</v>
+        <v>131167893</v>
       </c>
       <c r="B46" t="n">
         <v>79244</v>
@@ -5464,10 +5464,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>467651</v>
+        <v>467639</v>
       </c>
       <c r="R46" t="n">
-        <v>6797250</v>
+        <v>6797293</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5536,7 +5536,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131167954</v>
+        <v>131167891</v>
       </c>
       <c r="B47" t="n">
         <v>79244</v>
@@ -5571,10 +5571,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>467633</v>
+        <v>467651</v>
       </c>
       <c r="R47" t="n">
-        <v>6797570</v>
+        <v>6797250</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5643,7 +5643,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131167942</v>
+        <v>131167954</v>
       </c>
       <c r="B48" t="n">
         <v>79244</v>
@@ -5678,10 +5678,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>467567</v>
+        <v>467633</v>
       </c>
       <c r="R48" t="n">
-        <v>6797786</v>
+        <v>6797570</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5750,10 +5750,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131167867</v>
+        <v>131167942</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5761,39 +5761,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>467703</v>
+        <v>467567</v>
       </c>
       <c r="R49" t="n">
-        <v>6797331</v>
+        <v>6797786</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5825,7 +5820,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -5835,12 +5830,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>17:17</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5867,38 +5857,38 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131167860</v>
+        <v>131167867</v>
       </c>
       <c r="B50" t="n">
-        <v>4773</v>
+        <v>57884</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100299</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5907,10 +5897,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>467601</v>
+        <v>467703</v>
       </c>
       <c r="R50" t="n">
-        <v>6797468</v>
+        <v>6797331</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5942,7 +5932,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5952,7 +5942,12 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5979,45 +5974,50 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131167893</v>
+        <v>131167860</v>
       </c>
       <c r="B51" t="n">
-        <v>79244</v>
+        <v>4773</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>100299</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>467639</v>
+        <v>467601</v>
       </c>
       <c r="R51" t="n">
-        <v>6797293</v>
+        <v>6797468</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6194,7 +6194,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131167938</v>
+        <v>131167932</v>
       </c>
       <c r="B53" t="n">
         <v>79244</v>
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>467578</v>
+        <v>467553</v>
       </c>
       <c r="R53" t="n">
-        <v>6797832</v>
+        <v>6797919</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6301,7 +6301,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131167932</v>
+        <v>131167938</v>
       </c>
       <c r="B54" t="n">
         <v>79244</v>
@@ -6336,10 +6336,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>467553</v>
+        <v>467578</v>
       </c>
       <c r="R54" t="n">
-        <v>6797919</v>
+        <v>6797832</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6729,10 +6729,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131167982</v>
+        <v>131167857</v>
       </c>
       <c r="B58" t="n">
-        <v>57884</v>
+        <v>83224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6740,39 +6740,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>467658</v>
+        <v>467564</v>
       </c>
       <c r="R58" t="n">
-        <v>6797466</v>
+        <v>6797696</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6804,7 +6799,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6814,7 +6809,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6841,10 +6836,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131167857</v>
+        <v>131167983</v>
       </c>
       <c r="B59" t="n">
-        <v>83224</v>
+        <v>78647</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6852,21 +6847,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6440</v>
+        <v>6437</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6876,10 +6871,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>467564</v>
+        <v>467644</v>
       </c>
       <c r="R59" t="n">
-        <v>6797696</v>
+        <v>6797577</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6911,7 +6906,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6921,7 +6916,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6948,10 +6943,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131167983</v>
+        <v>131167947</v>
       </c>
       <c r="B60" t="n">
-        <v>78647</v>
+        <v>79244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6959,21 +6954,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6983,10 +6978,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>467644</v>
+        <v>467565</v>
       </c>
       <c r="R60" t="n">
-        <v>6797577</v>
+        <v>6797695</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7018,7 +7013,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7028,7 +7023,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7055,7 +7050,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131167947</v>
+        <v>131167912</v>
       </c>
       <c r="B61" t="n">
         <v>79244</v>
@@ -7090,10 +7085,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>467565</v>
+        <v>467598</v>
       </c>
       <c r="R61" t="n">
-        <v>6797695</v>
+        <v>6797550</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7125,7 +7120,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7135,7 +7130,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7162,7 +7157,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131167912</v>
+        <v>131167921</v>
       </c>
       <c r="B62" t="n">
         <v>79244</v>
@@ -7197,10 +7192,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>467598</v>
+        <v>467590</v>
       </c>
       <c r="R62" t="n">
-        <v>6797550</v>
+        <v>6797795</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7232,7 +7227,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7242,7 +7237,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7269,7 +7264,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131167921</v>
+        <v>131167925</v>
       </c>
       <c r="B63" t="n">
         <v>79244</v>
@@ -7304,10 +7299,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>467590</v>
+        <v>467583</v>
       </c>
       <c r="R63" t="n">
-        <v>6797795</v>
+        <v>6797900</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7339,7 +7334,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7349,7 +7344,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7376,10 +7371,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131167925</v>
+        <v>131167982</v>
       </c>
       <c r="B64" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7387,34 +7382,39 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>467583</v>
+        <v>467658</v>
       </c>
       <c r="R64" t="n">
-        <v>6797900</v>
+        <v>6797466</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="AD64" t="b">

--- a/artfynd/A 62816-2025 artfynd.xlsx
+++ b/artfynd/A 62816-2025 artfynd.xlsx
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131167872</v>
+        <v>131167871</v>
       </c>
       <c r="B3" t="n">
-        <v>79001</v>
+        <v>78256</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>228579</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>467563</v>
+        <v>467653</v>
       </c>
       <c r="R3" t="n">
-        <v>6797817</v>
+        <v>6797353</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131167899</v>
+        <v>131167872</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -905,21 +905,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>467639</v>
+        <v>467563</v>
       </c>
       <c r="R4" t="n">
-        <v>6797349</v>
+        <v>6797817</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131167871</v>
+        <v>131167899</v>
       </c>
       <c r="B5" t="n">
-        <v>78256</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,21 +1012,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228579</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>467653</v>
+        <v>467639</v>
       </c>
       <c r="R5" t="n">
-        <v>6797353</v>
+        <v>6797349</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131167979</v>
+        <v>131167862</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,16 +1226,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1246,7 +1246,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>467642</v>
+        <v>467561</v>
       </c>
       <c r="R7" t="n">
-        <v>6797363</v>
+        <v>6797758</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:58</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1327,10 +1327,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131167862</v>
+        <v>131167979</v>
       </c>
       <c r="B8" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1338,16 +1338,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1358,7 +1358,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>467561</v>
+        <v>467642</v>
       </c>
       <c r="R8" t="n">
-        <v>6797758</v>
+        <v>6797363</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:58</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1760,7 +1760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131167922</v>
+        <v>131167971</v>
       </c>
       <c r="B12" t="n">
         <v>79244</v>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>467590</v>
+        <v>467689</v>
       </c>
       <c r="R12" t="n">
-        <v>6797817</v>
+        <v>6797293</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:26</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:26</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1867,7 +1867,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131167971</v>
+        <v>131167922</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>467689</v>
+        <v>467590</v>
       </c>
       <c r="R13" t="n">
-        <v>6797293</v>
+        <v>6797817</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:26</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:26</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2081,7 +2081,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131167915</v>
+        <v>131167923</v>
       </c>
       <c r="B15" t="n">
         <v>79244</v>
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>467623</v>
+        <v>467579</v>
       </c>
       <c r="R15" t="n">
-        <v>6797612</v>
+        <v>6797836</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>16:27</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2188,10 +2188,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131167923</v>
+        <v>131167875</v>
       </c>
       <c r="B16" t="n">
-        <v>79244</v>
+        <v>91829</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2199,23 +2199,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2223,10 +2219,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>467579</v>
+        <v>467596</v>
       </c>
       <c r="R16" t="n">
-        <v>6797836</v>
+        <v>6797790</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2258,7 +2254,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2268,7 +2264,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:27</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2509,10 +2505,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131167856</v>
+        <v>131167915</v>
       </c>
       <c r="B19" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2520,21 +2516,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2544,10 +2540,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>467561</v>
+        <v>467623</v>
       </c>
       <c r="R19" t="n">
-        <v>6797709</v>
+        <v>6797612</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2579,7 +2575,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2589,7 +2585,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2616,10 +2612,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131167890</v>
+        <v>131167856</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2627,21 +2623,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2651,10 +2647,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>467641</v>
+        <v>467561</v>
       </c>
       <c r="R20" t="n">
-        <v>6797236</v>
+        <v>6797709</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2686,7 +2682,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2696,7 +2692,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2723,10 +2719,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131167976</v>
+        <v>131167890</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2734,39 +2730,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>467639</v>
+        <v>467641</v>
       </c>
       <c r="R21" t="n">
-        <v>6797349</v>
+        <v>6797236</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2798,7 +2789,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2808,7 +2799,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2835,7 +2826,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131167984</v>
+        <v>131167976</v>
       </c>
       <c r="B22" t="n">
         <v>57884</v>
@@ -2866,7 +2857,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>gammalt bo</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2875,10 +2866,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>467672</v>
+        <v>467639</v>
       </c>
       <c r="R22" t="n">
-        <v>6797328</v>
+        <v>6797349</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2910,7 +2901,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2920,7 +2911,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2947,10 +2938,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131167875</v>
+        <v>131167984</v>
       </c>
       <c r="B23" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2958,30 +2949,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>467596</v>
+        <v>467672</v>
       </c>
       <c r="R23" t="n">
-        <v>6797790</v>
+        <v>6797328</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3707,7 +3707,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131167936</v>
+        <v>131167926</v>
       </c>
       <c r="B30" t="n">
         <v>79244</v>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>467544</v>
+        <v>467598</v>
       </c>
       <c r="R30" t="n">
-        <v>6797873</v>
+        <v>6797908</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3814,7 +3814,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131167926</v>
+        <v>131167936</v>
       </c>
       <c r="B31" t="n">
         <v>79244</v>
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>467598</v>
+        <v>467544</v>
       </c>
       <c r="R31" t="n">
-        <v>6797908</v>
+        <v>6797873</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>16:32</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4135,7 +4135,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131167967</v>
+        <v>131167966</v>
       </c>
       <c r="B34" t="n">
         <v>79244</v>
@@ -4170,10 +4170,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>467672</v>
+        <v>467699</v>
       </c>
       <c r="R34" t="n">
-        <v>6797328</v>
+        <v>6797334</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:18</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4242,10 +4242,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131167966</v>
+        <v>131167981</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4253,34 +4253,39 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>467699</v>
+        <v>467577</v>
       </c>
       <c r="R35" t="n">
-        <v>6797334</v>
+        <v>6797814</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4312,7 +4317,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4322,7 +4327,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>17:18</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4349,10 +4354,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131167981</v>
+        <v>131167967</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4360,39 +4365,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>467577</v>
+        <v>467672</v>
       </c>
       <c r="R36" t="n">
-        <v>6797814</v>
+        <v>6797328</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4894,7 +4894,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131167952</v>
+        <v>131167931</v>
       </c>
       <c r="B41" t="n">
         <v>79244</v>
@@ -4929,10 +4929,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>467574</v>
+        <v>467558</v>
       </c>
       <c r="R41" t="n">
-        <v>6797625</v>
+        <v>6797922</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:46</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5001,7 +5001,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131167931</v>
+        <v>131167952</v>
       </c>
       <c r="B42" t="n">
         <v>79244</v>
@@ -5036,10 +5036,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>467558</v>
+        <v>467574</v>
       </c>
       <c r="R42" t="n">
-        <v>6797922</v>
+        <v>6797625</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>16:46</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5215,7 +5215,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131167901</v>
+        <v>131167943</v>
       </c>
       <c r="B44" t="n">
         <v>79244</v>
@@ -5250,10 +5250,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>467647</v>
+        <v>467577</v>
       </c>
       <c r="R44" t="n">
-        <v>6797361</v>
+        <v>6797766</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5322,7 +5322,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131167943</v>
+        <v>131167901</v>
       </c>
       <c r="B45" t="n">
         <v>79244</v>
@@ -5357,10 +5357,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>467577</v>
+        <v>467647</v>
       </c>
       <c r="R45" t="n">
-        <v>6797766</v>
+        <v>6797361</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5429,7 +5429,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131167893</v>
+        <v>131167954</v>
       </c>
       <c r="B46" t="n">
         <v>79244</v>
@@ -5464,10 +5464,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>467639</v>
+        <v>467633</v>
       </c>
       <c r="R46" t="n">
-        <v>6797293</v>
+        <v>6797570</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>17:06</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5536,10 +5536,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131167891</v>
+        <v>131167867</v>
       </c>
       <c r="B47" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5547,34 +5547,39 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>467651</v>
+        <v>467703</v>
       </c>
       <c r="R47" t="n">
-        <v>6797250</v>
+        <v>6797331</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5606,7 +5611,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5616,7 +5621,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5643,7 +5653,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131167954</v>
+        <v>131167891</v>
       </c>
       <c r="B48" t="n">
         <v>79244</v>
@@ -5678,10 +5688,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>467633</v>
+        <v>467651</v>
       </c>
       <c r="R48" t="n">
-        <v>6797570</v>
+        <v>6797250</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5713,7 +5723,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5723,7 +5733,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>17:06</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5857,10 +5867,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131167867</v>
+        <v>131167893</v>
       </c>
       <c r="B50" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5868,39 +5878,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Näckånapp, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>467703</v>
+        <v>467639</v>
       </c>
       <c r="R50" t="n">
-        <v>6797331</v>
+        <v>6797293</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5932,7 +5937,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5942,12 +5947,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>17:17</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6194,7 +6194,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131167932</v>
+        <v>131167938</v>
       </c>
       <c r="B53" t="n">
         <v>79244</v>
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>467553</v>
+        <v>467578</v>
       </c>
       <c r="R53" t="n">
-        <v>6797919</v>
+        <v>6797832</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6301,7 +6301,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131167938</v>
+        <v>131167916</v>
       </c>
       <c r="B54" t="n">
         <v>79244</v>
@@ -6336,10 +6336,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>467578</v>
+        <v>467623</v>
       </c>
       <c r="R54" t="n">
-        <v>6797832</v>
+        <v>6797638</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:19</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:19</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6408,7 +6408,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131167963</v>
+        <v>131167932</v>
       </c>
       <c r="B55" t="n">
         <v>79244</v>
@@ -6443,10 +6443,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>467679</v>
+        <v>467553</v>
       </c>
       <c r="R55" t="n">
-        <v>6797386</v>
+        <v>6797919</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>17:14</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>17:14</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6515,7 +6515,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131167916</v>
+        <v>131167963</v>
       </c>
       <c r="B56" t="n">
         <v>79244</v>
@@ -6550,10 +6550,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>467623</v>
+        <v>467679</v>
       </c>
       <c r="R56" t="n">
-        <v>6797638</v>
+        <v>6797386</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>16:19</t>
+          <t>17:14</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>16:19</t>
+          <t>17:14</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6943,7 +6943,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131167947</v>
+        <v>131167912</v>
       </c>
       <c r="B60" t="n">
         <v>79244</v>
@@ -6978,10 +6978,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>467565</v>
+        <v>467598</v>
       </c>
       <c r="R60" t="n">
-        <v>6797695</v>
+        <v>6797550</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7050,7 +7050,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131167912</v>
+        <v>131167925</v>
       </c>
       <c r="B61" t="n">
         <v>79244</v>
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>467598</v>
+        <v>467583</v>
       </c>
       <c r="R61" t="n">
-        <v>6797550</v>
+        <v>6797900</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7157,7 +7157,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131167921</v>
+        <v>131167947</v>
       </c>
       <c r="B62" t="n">
         <v>79244</v>
@@ -7192,10 +7192,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>467590</v>
+        <v>467565</v>
       </c>
       <c r="R62" t="n">
-        <v>6797795</v>
+        <v>6797695</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7264,7 +7264,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131167925</v>
+        <v>131167921</v>
       </c>
       <c r="B63" t="n">
         <v>79244</v>
@@ -7299,10 +7299,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>467583</v>
+        <v>467590</v>
       </c>
       <c r="R63" t="n">
-        <v>6797900</v>
+        <v>6797795</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7697,7 +7697,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131167968</v>
+        <v>131167927</v>
       </c>
       <c r="B67" t="n">
         <v>79244</v>
@@ -7732,10 +7732,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>467656</v>
+        <v>467608</v>
       </c>
       <c r="R67" t="n">
-        <v>6797345</v>
+        <v>6797937</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7804,7 +7804,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131167927</v>
+        <v>131167968</v>
       </c>
       <c r="B68" t="n">
         <v>79244</v>
@@ -7839,10 +7839,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>467608</v>
+        <v>467656</v>
       </c>
       <c r="R68" t="n">
-        <v>6797937</v>
+        <v>6797345</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8130,7 +8130,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131167951</v>
+        <v>131167970</v>
       </c>
       <c r="B71" t="n">
         <v>79244</v>
@@ -8165,10 +8165,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>467571</v>
+        <v>467665</v>
       </c>
       <c r="R71" t="n">
-        <v>6797635</v>
+        <v>6797301</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8237,7 +8237,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131167900</v>
+        <v>131167951</v>
       </c>
       <c r="B72" t="n">
         <v>79244</v>
@@ -8272,10 +8272,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>467647</v>
+        <v>467571</v>
       </c>
       <c r="R72" t="n">
-        <v>6797353</v>
+        <v>6797635</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8344,7 +8344,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131167950</v>
+        <v>131167900</v>
       </c>
       <c r="B73" t="n">
         <v>79244</v>
@@ -8379,10 +8379,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>467569</v>
+        <v>467647</v>
       </c>
       <c r="R73" t="n">
-        <v>6797667</v>
+        <v>6797353</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>17:03</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8451,7 +8451,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131167904</v>
+        <v>131167950</v>
       </c>
       <c r="B74" t="n">
         <v>79244</v>
@@ -8486,10 +8486,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>467602</v>
+        <v>467569</v>
       </c>
       <c r="R74" t="n">
-        <v>6797434</v>
+        <v>6797667</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>16:11</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>16:11</t>
+          <t>17:03</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8558,7 +8558,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131167965</v>
+        <v>131167904</v>
       </c>
       <c r="B75" t="n">
         <v>79244</v>
@@ -8593,10 +8593,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>467694</v>
+        <v>467602</v>
       </c>
       <c r="R75" t="n">
-        <v>6797345</v>
+        <v>6797434</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>16:11</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8665,7 +8665,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131167914</v>
+        <v>131167965</v>
       </c>
       <c r="B76" t="n">
         <v>79244</v>
@@ -8700,10 +8700,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>467622</v>
+        <v>467694</v>
       </c>
       <c r="R76" t="n">
-        <v>6797592</v>
+        <v>6797345</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>16:18</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8772,7 +8772,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131167964</v>
+        <v>131167914</v>
       </c>
       <c r="B77" t="n">
         <v>79244</v>
@@ -8807,10 +8807,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>467685</v>
+        <v>467622</v>
       </c>
       <c r="R77" t="n">
-        <v>6797361</v>
+        <v>6797592</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8842,7 +8842,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:18</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8879,7 +8879,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131167970</v>
+        <v>131167964</v>
       </c>
       <c r="B78" t="n">
         <v>79244</v>
@@ -8914,10 +8914,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>467665</v>
+        <v>467685</v>
       </c>
       <c r="R78" t="n">
-        <v>6797301</v>
+        <v>6797361</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9414,7 +9414,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131167892</v>
+        <v>131167939</v>
       </c>
       <c r="B83" t="n">
         <v>79244</v>
@@ -9449,10 +9449,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>467652</v>
+        <v>467562</v>
       </c>
       <c r="R83" t="n">
-        <v>6797268</v>
+        <v>6797811</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9494,7 +9494,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9521,7 +9521,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131167939</v>
+        <v>131167906</v>
       </c>
       <c r="B84" t="n">
         <v>79244</v>
@@ -9556,10 +9556,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>467562</v>
+        <v>467599</v>
       </c>
       <c r="R84" t="n">
-        <v>6797811</v>
+        <v>6797480</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:14</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9628,7 +9628,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131167906</v>
+        <v>131167892</v>
       </c>
       <c r="B85" t="n">
         <v>79244</v>
@@ -9663,10 +9663,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>467599</v>
+        <v>467652</v>
       </c>
       <c r="R85" t="n">
-        <v>6797480</v>
+        <v>6797268</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10270,7 +10270,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131167930</v>
+        <v>131167969</v>
       </c>
       <c r="B91" t="n">
         <v>79244</v>
@@ -10305,10 +10305,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>467562</v>
+        <v>467656</v>
       </c>
       <c r="R91" t="n">
-        <v>6797958</v>
+        <v>6797324</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>16:44</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>16:44</t>
+          <t>17:23</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10377,7 +10377,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131167969</v>
+        <v>131167948</v>
       </c>
       <c r="B92" t="n">
         <v>79244</v>
@@ -10412,10 +10412,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>467656</v>
+        <v>467562</v>
       </c>
       <c r="R92" t="n">
-        <v>6797324</v>
+        <v>6797682</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10447,7 +10447,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>17:23</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10484,7 +10484,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131167948</v>
+        <v>131167930</v>
       </c>
       <c r="B93" t="n">
         <v>79244</v>
@@ -10522,7 +10522,7 @@
         <v>467562</v>
       </c>
       <c r="R93" t="n">
-        <v>6797682</v>
+        <v>6797958</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10554,7 +10554,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:44</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:44</t>
         </is>
       </c>
       <c r="AD93" t="b">
